--- a/Documents/00_Requirements/Web Site creative_1215.xlsx
+++ b/Documents/00_Requirements/Web Site creative_1215.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrar_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrar_\git\CookingAdventure\Documents\00_Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420" firstSheet="6" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01_Planning" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>サイト名</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>Website Framework(Joomla)</t>
+  </si>
+  <si>
+    <t>might need a scroll page,max 4-5 rommended</t>
+  </si>
+  <si>
+    <t>scroll page at least 4-5 recommend contents</t>
   </si>
 </sst>
 </file>
@@ -813,7 +819,7 @@
         <xdr:cNvPr id="70" name="グループ化 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14282F26-0DA3-45E1-A741-21EE8EFC6488}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14282F26-0DA3-45E1-A741-21EE8EFC6488}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,8 +827,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2936303" y="3180344"/>
-          <a:ext cx="3490173" cy="4227621"/>
+          <a:off x="2675953" y="3180344"/>
+          <a:ext cx="3306023" cy="4227621"/>
           <a:chOff x="12544424" y="2714625"/>
           <a:chExt cx="2962275" cy="4114800"/>
         </a:xfrm>
@@ -832,7 +838,7 @@
           <xdr:cNvPr id="71" name="正方形/長方形 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E733E8C-1895-4BAB-ABD6-DF7A8361AA61}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E733E8C-1895-4BAB-ABD6-DF7A8361AA61}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -911,7 +917,7 @@
           <xdr:cNvPr id="72" name="正方形/長方形 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7A6D6B5-9245-4823-805A-8E0C9C67BC26}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A6D6B5-9245-4823-805A-8E0C9C67BC26}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1205,7 +1211,7 @@
           <xdr:cNvPr id="73" name="グループ化 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5C888CB-A6F4-4F6B-9AB0-9DA82C7B5A46}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C888CB-A6F4-4F6B-9AB0-9DA82C7B5A46}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1224,7 +1230,7 @@
             <xdr:cNvPr id="79" name="正方形/長方形 78">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1B686E5-5EE3-47F0-88E3-43632E6F86F5}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B686E5-5EE3-47F0-88E3-43632E6F86F5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1277,7 +1283,7 @@
             <xdr:cNvPr id="80" name="正方形/長方形 79">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73D0EC99-B08B-4931-80B1-F38C1EDF460C}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D0EC99-B08B-4931-80B1-F38C1EDF460C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1343,7 +1349,7 @@
           <xdr:cNvPr id="74" name="グループ化 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{717A3CF7-02E8-4451-A5DE-66566213CB37}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717A3CF7-02E8-4451-A5DE-66566213CB37}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1362,7 +1368,7 @@
             <xdr:cNvPr id="77" name="正方形/長方形 76">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B634052B-4E9B-4102-AF88-1880F6BBEB6D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B634052B-4E9B-4102-AF88-1880F6BBEB6D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1415,7 +1421,7 @@
             <xdr:cNvPr id="78" name="正方形/長方形 77">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2065CFC-5237-4206-A7B8-E1132894E8D1}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2065CFC-5237-4206-A7B8-E1132894E8D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1481,7 +1487,7 @@
           <xdr:cNvPr id="75" name="正方形/長方形 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AB427C6-9076-478E-A966-DC40A87849C8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB427C6-9076-478E-A966-DC40A87849C8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1541,7 +1547,7 @@
           <xdr:cNvPr id="76" name="正方形/長方形 75">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07DEEE3B-727C-4EDC-8F7B-AEB6963AFD82}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DEEE3B-727C-4EDC-8F7B-AEB6963AFD82}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1625,7 +1631,7 @@
         <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03041468-BC84-420E-B017-F3AFA9B8C04E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03041468-BC84-420E-B017-F3AFA9B8C04E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,7 +1684,7 @@
         <xdr:cNvPr id="82" name="正方形/長方形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB137CEF-8772-4898-904A-91A5DA3AA45C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB137CEF-8772-4898-904A-91A5DA3AA45C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1781,7 @@
         <xdr:cNvPr id="88" name="グループ化 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DFC216E-F92D-4569-A956-3C6EC2994051}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DFC216E-F92D-4569-A956-3C6EC2994051}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1789,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3328781" y="7933084"/>
+          <a:off x="3068431" y="7933084"/>
           <a:ext cx="2799521" cy="1796912"/>
           <a:chOff x="12668249" y="2952750"/>
           <a:chExt cx="2390775" cy="1495425"/>
@@ -1794,7 +1800,7 @@
           <xdr:cNvPr id="89" name="正方形/長方形 88">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D0A764B-73D9-4690-8243-A744A4DC9988}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0A764B-73D9-4690-8243-A744A4DC9988}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1851,7 +1857,7 @@
           <xdr:cNvPr id="90" name="正方形/長方形 89">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFCFBFD5-3FA9-4BF9-87AF-E9A47B2A2B4A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCFBFD5-3FA9-4BF9-87AF-E9A47B2A2B4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1911,7 +1917,7 @@
           <xdr:cNvPr id="91" name="正方形/長方形 90">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93F7F429-7D24-40D9-8B53-5B9736ECDE6F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F7F429-7D24-40D9-8B53-5B9736ECDE6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2003,7 +2009,7 @@
         <xdr:cNvPr id="50" name="グループ化 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C923E550-8EFD-4625-9BB3-DED094DA3015}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C923E550-8EFD-4625-9BB3-DED094DA3015}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2028,7 @@
           <xdr:cNvPr id="49" name="正方形/長方形 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B730B1C5-8552-43CB-AFB4-C66E821ED57B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B730B1C5-8552-43CB-AFB4-C66E821ED57B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2070,7 +2076,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0758DA8B-3544-4C6F-8960-F37DF567330E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0758DA8B-3544-4C6F-8960-F37DF567330E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2118,7 +2124,7 @@
           <xdr:cNvPr id="2" name="正方形/長方形 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46126767-161C-485F-BBA8-1E2FBACEE6E0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46126767-161C-485F-BBA8-1E2FBACEE6E0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2194,7 +2200,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D882ED71-0FA5-4C91-A1D0-3BA65779F3A8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D882ED71-0FA5-4C91-A1D0-3BA65779F3A8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2259,7 +2265,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0438CF01-344C-4D88-9C5A-70701CA999EC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0438CF01-344C-4D88-9C5A-70701CA999EC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2324,7 +2330,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8BD50AD-279A-45CF-810E-8B4916B3948B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BD50AD-279A-45CF-810E-8B4916B3948B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2411,7 +2417,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{872CE733-91A1-4463-8E7F-3ECFCCD96E4E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872CE733-91A1-4463-8E7F-3ECFCCD96E4E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2476,7 +2482,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65E4E40A-4F74-4E1A-865B-A7B8CF0AFEEB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E4E40A-4F74-4E1A-865B-A7B8CF0AFEEB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2549,7 +2555,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD4043AD-CCBA-44D8-BFDC-339D0ABD081C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4043AD-CCBA-44D8-BFDC-339D0ABD081C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2614,7 +2620,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3F0BC2E-6FC2-4E8E-A8DA-3A814B209A98}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F0BC2E-6FC2-4E8E-A8DA-3A814B209A98}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2679,7 +2685,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49320725-C004-4237-AB9E-35A6E78BF9BB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49320725-C004-4237-AB9E-35A6E78BF9BB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2752,7 +2758,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EF230A2-56BC-4ACA-878A-8559B1FA2F35}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF230A2-56BC-4ACA-878A-8559B1FA2F35}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2818,13 +2824,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>39005</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>3019424</xdr:colOff>
+      <xdr:colOff>2842530</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2833,7 +2839,7 @@
         <xdr:cNvPr id="35" name="グループ化 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4752E5C-F10F-4B11-AD26-D74ACF8E5901}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4752E5C-F10F-4B11-AD26-D74ACF8E5901}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2847,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11305720" y="2117725"/>
+          <a:off x="11287576" y="2117725"/>
           <a:ext cx="2803525" cy="3150961"/>
           <a:chOff x="12544424" y="2714625"/>
           <a:chExt cx="2962275" cy="4114800"/>
@@ -2852,7 +2858,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5907C87-63A9-4B68-8D7C-4CC98FDCBA14}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5907C87-63A9-4B68-8D7C-4CC98FDCBA14}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2931,7 +2937,7 @@
           <xdr:cNvPr id="16" name="正方形/長方形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7645C89-582D-430B-972E-089783C00A2C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7645C89-582D-430B-972E-089783C00A2C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3225,7 +3231,7 @@
           <xdr:cNvPr id="24" name="グループ化 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D48B56FE-58CF-4AA6-8172-6A0665FC0CD7}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48B56FE-58CF-4AA6-8172-6A0665FC0CD7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3244,7 +3250,7 @@
             <xdr:cNvPr id="18" name="正方形/長方形 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8B51A18-EE13-4134-9255-EC3F6B70B84D}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B51A18-EE13-4134-9255-EC3F6B70B84D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3297,7 +3303,7 @@
             <xdr:cNvPr id="21" name="正方形/長方形 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A479BDC-5008-41CA-B84D-5CA492C6249F}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A479BDC-5008-41CA-B84D-5CA492C6249F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3363,7 +3369,7 @@
           <xdr:cNvPr id="25" name="グループ化 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C81237EF-2A6F-4A9C-804D-B0018893D040}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81237EF-2A6F-4A9C-804D-B0018893D040}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3382,7 +3388,7 @@
             <xdr:cNvPr id="26" name="正方形/長方形 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9FC0D8-33A4-451A-9996-C194C1DD2EE1}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9FC0D8-33A4-451A-9996-C194C1DD2EE1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3435,7 +3441,7 @@
             <xdr:cNvPr id="27" name="正方形/長方形 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA61CB0D-7B75-4396-ACA3-2BEFCDEC4BD0}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA61CB0D-7B75-4396-ACA3-2BEFCDEC4BD0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3501,7 +3507,7 @@
           <xdr:cNvPr id="28" name="正方形/長方形 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B88FCDB2-2BAF-4160-8E2F-24E645CBFA51}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88FCDB2-2BAF-4160-8E2F-24E645CBFA51}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3561,7 +3567,7 @@
           <xdr:cNvPr id="29" name="正方形/長方形 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{865E6D78-F3A2-45B4-AAD2-B10059D39F17}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865E6D78-F3A2-45B4-AAD2-B10059D39F17}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3645,7 +3651,7 @@
         <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B580056A-C94C-43CE-8C78-0A0366392569}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B580056A-C94C-43CE-8C78-0A0366392569}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3704,7 @@
         <xdr:cNvPr id="33" name="正方形/長方形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB3861EA-1DFC-4FFE-B1CB-CEC2385D6B0A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3861EA-1DFC-4FFE-B1CB-CEC2385D6B0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3795,7 +3801,7 @@
         <xdr:cNvPr id="36" name="グループ化 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B152978-CCB0-4BEA-B75C-CA7B6B513566}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B152978-CCB0-4BEA-B75C-CA7B6B513566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3814,7 +3820,7 @@
           <xdr:cNvPr id="37" name="正方形/長方形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E315B23-9B31-40EE-A8F6-C1AF9501FC23}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E315B23-9B31-40EE-A8F6-C1AF9501FC23}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3871,7 +3877,7 @@
           <xdr:cNvPr id="41" name="正方形/長方形 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35ABED08-ADA5-4616-B45F-DBEA918DB5F5}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35ABED08-ADA5-4616-B45F-DBEA918DB5F5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3931,7 +3937,7 @@
           <xdr:cNvPr id="42" name="正方形/長方形 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F327B153-86A6-470C-ABDE-C34E785A63EC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F327B153-86A6-470C-ABDE-C34E785A63EC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4018,7 +4024,7 @@
         <xdr:cNvPr id="52" name="正方形/長方形 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F7C43C-3CCF-42C9-A796-F190DA6F4DB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F7C43C-3CCF-42C9-A796-F190DA6F4DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4081,7 +4087,7 @@
         <xdr:cNvPr id="53" name="正方形/長方形 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A97F21FB-FD7E-4B99-85E6-A7A415F014A5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97F21FB-FD7E-4B99-85E6-A7A415F014A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4150,7 @@
         <xdr:cNvPr id="54" name="正方形/長方形 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4321EE5C-1DFC-439B-83C2-D234E70BD960}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4321EE5C-1DFC-439B-83C2-D234E70BD960}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4235,7 +4241,7 @@
         <xdr:cNvPr id="55" name="正方形/長方形 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2301E22-7E59-4B89-8974-CED30F7A520C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2301E22-7E59-4B89-8974-CED30F7A520C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +4321,7 @@
         <xdr:cNvPr id="81" name="グループ化 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFF7CB6C-1302-4622-A075-3E4B4D8EBC87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF7CB6C-1302-4622-A075-3E4B4D8EBC87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4334,7 +4340,7 @@
           <xdr:cNvPr id="59" name="正方形/長方形 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E33D25F-A89A-4EE3-9F66-51A25E7401D6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E33D25F-A89A-4EE3-9F66-51A25E7401D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4407,7 +4413,7 @@
           <xdr:cNvPr id="60" name="正方形/長方形 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C10772C7-C717-4E85-AD47-968BBB8A3998}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10772C7-C717-4E85-AD47-968BBB8A3998}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4472,7 +4478,7 @@
           <xdr:cNvPr id="61" name="正方形/長方形 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FDD0BCE-FDC5-4EFB-A57A-74067EAAE9FA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDD0BCE-FDC5-4EFB-A57A-74067EAAE9FA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4553,7 +4559,7 @@
         <xdr:cNvPr id="62" name="正方形/長方形 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3818CFEC-B7D3-46B9-9072-ED0249BB119F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3818CFEC-B7D3-46B9-9072-ED0249BB119F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4628,7 +4634,7 @@
         <xdr:cNvPr id="64" name="正方形/長方形 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{941145BD-7484-4DA0-B6FE-0557B034ADA8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941145BD-7484-4DA0-B6FE-0557B034ADA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4737,7 +4743,7 @@
         <xdr:cNvPr id="65" name="正方形/長方形 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FF16ACC-831E-4549-A126-B10144169F2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF16ACC-831E-4549-A126-B10144169F2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4817,7 +4823,7 @@
         <xdr:cNvPr id="67" name="正方形/長方形 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7EDAAC5-B61E-40D4-A7B4-0B69F506CDAA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EDAAC5-B61E-40D4-A7B4-0B69F506CDAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4908,7 +4914,7 @@
         <xdr:cNvPr id="68" name="正方形/長方形 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56F57801-85B4-4C51-B54F-4A37974E6D48}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F57801-85B4-4C51-B54F-4A37974E6D48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4983,7 +4989,7 @@
         <xdr:cNvPr id="69" name="正方形/長方形 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{625AF64F-D708-4B1D-AC87-A3C1732AECD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625AF64F-D708-4B1D-AC87-A3C1732AECD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5063,7 +5069,7 @@
         <xdr:cNvPr id="71" name="コネクタ: カギ線 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9D0D727-7646-4C67-B91F-35AB577DF83F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D0D727-7646-4C67-B91F-35AB577DF83F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5098,6 +5104,86 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>410021</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124251</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49320725-C004-4237-AB9E-35A6E78BF9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1670950" y="4729378"/>
+          <a:ext cx="6418015" cy="541122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>footer                                                                                                                                                                     XXX XXXX XXXXX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5720,7 +5806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -5966,7 +6052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -5988,10 +6074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6120,6 +6206,9 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18">
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="6"/>
@@ -6243,6 +6332,11 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="7"/>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
